--- a/multithread/resources/task_app.xlsx
+++ b/multithread/resources/task_app.xlsx
@@ -1,29 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\st\prog\projects\java-multithread-xJust-N\multithread\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B060F6-0412-471D-9585-B383029717B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6990" yWindow="1522" windowWidth="18000" windowHeight="10433" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="задачи" sheetId="1" r:id="rId1"/>
+    <sheet name="сотрудники" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>dave</t>
+  </si>
+  <si>
+    <t>josh</t>
+  </si>
+  <si>
+    <t>lalala</t>
+  </si>
+  <si>
+    <t>task1</t>
+  </si>
+  <si>
+    <t>task2</t>
+  </si>
+  <si>
+    <t>task3</t>
+  </si>
+  <si>
+    <t>task4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,7 +113,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +125,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +172,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +224,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -330,13 +392,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8839E327-A087-4036-82A1-B236275CC492}">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>